--- a/lookup/Lookup.xlsx
+++ b/lookup/Lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work_space\TwitterAPIV2\lookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/govindvarmatn/govind/pythonWorkSpace/twitterFolloweeMonitor/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53E8AA-A492-4CBB-BA27-55DA10EA145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D3B3CB-F38F-2B4E-9757-BAFC2EBF4216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Govind1stApp" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>USER_NAME</t>
   </si>
@@ -159,13 +159,94 @@
   </si>
   <si>
     <t xml:space="preserve">deranzxc </t>
+  </si>
+  <si>
+    <t>pranksy</t>
+  </si>
+  <si>
+    <t>Zeneca_33</t>
+  </si>
+  <si>
+    <t>Vince_Van_Dough</t>
+  </si>
+  <si>
+    <t>mattmedved</t>
+  </si>
+  <si>
+    <t>BAYC2745</t>
+  </si>
+  <si>
+    <t>abwagmi</t>
+  </si>
+  <si>
+    <t>ZssBecker</t>
+  </si>
+  <si>
+    <t>TFGmykL</t>
+  </si>
+  <si>
+    <t>Cryptik1E</t>
+  </si>
+  <si>
+    <t>JRNYcrypto</t>
+  </si>
+  <si>
+    <t>shroom_daddy</t>
+  </si>
+  <si>
+    <t>0x_Sats</t>
+  </si>
+  <si>
+    <t>0xUnihax0r</t>
+  </si>
+  <si>
+    <t>CatalystDrive</t>
+  </si>
+  <si>
+    <t>digitalartchick</t>
+  </si>
+  <si>
+    <t>SirVincentFred</t>
+  </si>
+  <si>
+    <t>alpinestar17</t>
+  </si>
+  <si>
+    <t>Shill_Pill </t>
+  </si>
+  <si>
+    <t>TendermintTimmy </t>
+  </si>
+  <si>
+    <t>DAOhound_ </t>
+  </si>
+  <si>
+    <t>takegreenpill </t>
+  </si>
+  <si>
+    <t>bitdeep_oficial </t>
+  </si>
+  <si>
+    <t>CryptoDexer </t>
+  </si>
+  <si>
+    <t>MicroCapHawk </t>
+  </si>
+  <si>
+    <t>cr_zilla </t>
+  </si>
+  <si>
+    <t>pwnlord69 </t>
+  </si>
+  <si>
+    <t>crypto_saint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +261,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,16 +289,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,213 +586,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -707,130 +944,130 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -846,34 +1083,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
